--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelAppearData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelAppearData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA59BFF-F23F-47D9-8B5F-E4514FDE2B4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0784A20-F2F8-4F48-963A-4C4D894123E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" activeTab="1" xr2:uid="{3C887D4B-CDF8-44D4-8DE6-B9CF4D34208A}"/>
   </bookViews>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E766D0-3184-4C14-9F38-36E4736AA8A0}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -837,13 +837,13 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>0</v>
@@ -922,13 +922,13 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>0</v>
@@ -939,13 +939,13 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -973,13 +973,13 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>1</v>
@@ -1024,13 +1024,13 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>1</v>
@@ -1058,13 +1058,13 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>1</v>
@@ -1075,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>1</v>
@@ -1092,13 +1092,13 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>1</v>
@@ -1109,13 +1109,13 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="b">
         <v>1</v>
@@ -1126,13 +1126,13 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="b">
         <v>1</v>
@@ -1143,13 +1143,13 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="b">
         <v>1</v>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelAppearData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelAppearData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7D5137-1672-4443-9A00-C1D07BB7D558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D24AA86-2468-40F9-8A8D-A10689C3892C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8940" xr2:uid="{7F84C2BF-BDFE-4C87-94B5-DDCBB8D3DCEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{5CC62E52-88C4-4741-9A4A-4FB50AD01FAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="EnemyAppear" sheetId="2" r:id="rId1"/>
+    <sheet name="EnemyAppear" sheetId="1" r:id="rId1"/>
+    <sheet name="Itemappear" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shoponly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEAPON01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARMOR01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAND01</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>floor</t>
     <phoneticPr fontId="1"/>
@@ -47,7 +88,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SLIME</t>
+    <t>ENEMY1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOOD10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTION10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -94,8 +207,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,38 +530,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760AAB0C-A6A4-42A5-8545-18D18B2ED5A1}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0342AC2E-DC20-4A52-8C91-149DF09C3E0B}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -451,11 +570,612 @@
         <v>2</v>
       </c>
       <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32CC148-DA98-48D4-A515-3FD56E864A0F}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>70</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>60</v>
+      </c>
+      <c r="E24" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>